--- a/Data_cleaning/def_dataset/gent_vars_bcn.xlsx
+++ b/Data_cleaning/def_dataset/gent_vars_bcn.xlsx
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>23011</v>
+        <v>43690</v>
       </c>
       <c r="R2" t="n">
         <v>485</v>
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>23316</v>
+        <v>43586</v>
       </c>
       <c r="R3" t="n">
         <v>476</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>24170</v>
+        <v>44159</v>
       </c>
       <c r="R4" t="n">
         <v>461</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>24132</v>
+        <v>43751</v>
       </c>
       <c r="R5" t="n">
         <v>361</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>25077</v>
+        <v>44218</v>
       </c>
       <c r="R6" t="n">
         <v>411</v>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>25224</v>
+        <v>44025</v>
       </c>
       <c r="R7" t="n">
         <v>470</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>25919</v>
+        <v>44443</v>
       </c>
       <c r="R8" t="n">
         <v>15</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>24419</v>
+        <v>42320</v>
       </c>
       <c r="R9" t="n">
         <v>13</v>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>5884</v>
+        <v>13870</v>
       </c>
       <c r="R10" t="n">
         <v>413</v>
@@ -1729,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>6195</v>
+        <v>14051</v>
       </c>
       <c r="R11" t="n">
         <v>423</v>
@@ -1842,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6743</v>
+        <v>14362</v>
       </c>
       <c r="R12" t="n">
         <v>398</v>
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>7697</v>
+        <v>15102</v>
       </c>
       <c r="R13" t="n">
         <v>254</v>
@@ -2078,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9903</v>
+        <v>17191</v>
       </c>
       <c r="R14" t="n">
         <v>312</v>
@@ -2197,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>12415</v>
+        <v>19533</v>
       </c>
       <c r="R15" t="n">
         <v>438</v>
@@ -2316,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>13667</v>
+        <v>20643</v>
       </c>
       <c r="R16" t="n">
         <v>26</v>
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>13794</v>
+        <v>20623</v>
       </c>
       <c r="R17" t="n">
         <v>19</v>
@@ -2550,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>3833</v>
+        <v>13394</v>
       </c>
       <c r="R18" t="n">
         <v>268</v>
@@ -2659,7 +2659,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>3938</v>
+        <v>13338</v>
       </c>
       <c r="R19" t="n">
         <v>272</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>4235</v>
+        <v>13272</v>
       </c>
       <c r="R20" t="n">
         <v>259</v>
@@ -2889,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>4271</v>
+        <v>12969</v>
       </c>
       <c r="R21" t="n">
         <v>158</v>
@@ -3008,7 +3008,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>4838</v>
+        <v>13200</v>
       </c>
       <c r="R22" t="n">
         <v>207</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>4996</v>
+        <v>13037</v>
       </c>
       <c r="R23" t="n">
         <v>264</v>
@@ -3250,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>5222</v>
+        <v>13023</v>
       </c>
       <c r="R24" t="n">
         <v>16</v>
@@ -3367,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>4898</v>
+        <v>12342</v>
       </c>
       <c r="R25" t="n">
         <v>15</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>8197</v>
+        <v>20361</v>
       </c>
       <c r="R26" t="n">
         <v>460</v>
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>8128</v>
+        <v>20119</v>
       </c>
       <c r="R27" t="n">
         <v>399</v>
@@ -3710,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>8657</v>
+        <v>20492</v>
       </c>
       <c r="R28" t="n">
         <v>415</v>
@@ -3827,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>8636</v>
+        <v>20108</v>
       </c>
       <c r="R29" t="n">
         <v>365</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>9404</v>
+        <v>20576</v>
       </c>
       <c r="R30" t="n">
         <v>383</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>9603</v>
+        <v>20440</v>
       </c>
       <c r="R31" t="n">
         <v>527</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9758</v>
+        <v>20182</v>
       </c>
       <c r="R32" t="n">
         <v>23</v>
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>9574</v>
+        <v>19739</v>
       </c>
       <c r="R33" t="n">
         <v>46</v>
@@ -4422,7 +4422,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>5202</v>
+        <v>28976</v>
       </c>
       <c r="R34" t="n">
         <v>102</v>
@@ -4535,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>5368</v>
+        <v>29033</v>
       </c>
       <c r="R35" t="n">
         <v>102</v>
@@ -4648,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>5882</v>
+        <v>29221</v>
       </c>
       <c r="R36" t="n">
         <v>95</v>
@@ -4765,7 +4765,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>6210</v>
+        <v>29312</v>
       </c>
       <c r="R37" t="n">
         <v>104</v>
@@ -4884,7 +4884,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>6837</v>
+        <v>29695</v>
       </c>
       <c r="R38" t="n">
         <v>123</v>
@@ -5005,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>7756</v>
+        <v>30243</v>
       </c>
       <c r="R39" t="n">
         <v>138</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>8185</v>
+        <v>30113</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -5243,7 +5243,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>8572</v>
+        <v>30034</v>
       </c>
       <c r="R41" t="n">
         <v>5</v>
@@ -5360,7 +5360,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>7582</v>
+        <v>46565</v>
       </c>
       <c r="R42" t="n">
         <v>70</v>
@@ -5469,7 +5469,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>7984</v>
+        <v>46646</v>
       </c>
       <c r="R43" t="n">
         <v>85</v>
@@ -5578,7 +5578,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>8553</v>
+        <v>46734</v>
       </c>
       <c r="R44" t="n">
         <v>108</v>
@@ -5695,7 +5695,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>8797</v>
+        <v>46399</v>
       </c>
       <c r="R45" t="n">
         <v>83</v>
@@ -5814,7 +5814,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>9416</v>
+        <v>46314</v>
       </c>
       <c r="R46" t="n">
         <v>86</v>
@@ -5935,7 +5935,7 @@
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>10201</v>
+        <v>46488</v>
       </c>
       <c r="R47" t="n">
         <v>98</v>
@@ -6056,7 +6056,7 @@
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>10894</v>
+        <v>46293</v>
       </c>
       <c r="R48" t="n">
         <v>5</v>
@@ -6173,7 +6173,7 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>10979</v>
+        <v>45318</v>
       </c>
       <c r="R49" t="n">
         <v>0</v>
@@ -6290,7 +6290,7 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>6587</v>
+        <v>39537</v>
       </c>
       <c r="R50" t="n">
         <v>364</v>
@@ -6403,7 +6403,7 @@
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>6788</v>
+        <v>39536</v>
       </c>
       <c r="R51" t="n">
         <v>379</v>
@@ -6516,7 +6516,7 @@
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>7368</v>
+        <v>39777</v>
       </c>
       <c r="R52" t="n">
         <v>390</v>
@@ -6633,7 +6633,7 @@
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>7527</v>
+        <v>39344</v>
       </c>
       <c r="R53" t="n">
         <v>342</v>
@@ -6752,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>8256</v>
+        <v>39507</v>
       </c>
       <c r="R54" t="n">
         <v>381</v>
@@ -6873,7 +6873,7 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>8721</v>
+        <v>39411</v>
       </c>
       <c r="R55" t="n">
         <v>409</v>
@@ -6994,7 +6994,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>9494</v>
+        <v>39082</v>
       </c>
       <c r="R56" t="n">
         <v>18</v>
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>10209</v>
+        <v>39081</v>
       </c>
       <c r="R57" t="n">
         <v>38</v>
@@ -7228,7 +7228,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>6723</v>
+        <v>37957</v>
       </c>
       <c r="R58" t="n">
         <v>307</v>
@@ -7341,7 +7341,7 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>6971</v>
+        <v>38112</v>
       </c>
       <c r="R59" t="n">
         <v>315</v>
@@ -7454,7 +7454,7 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>7499</v>
+        <v>38344</v>
       </c>
       <c r="R60" t="n">
         <v>321</v>
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>7745</v>
+        <v>38266</v>
       </c>
       <c r="R61" t="n">
         <v>298</v>
@@ -7690,7 +7690,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>8639</v>
+        <v>38594</v>
       </c>
       <c r="R62" t="n">
         <v>305</v>
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>9120</v>
+        <v>38454</v>
       </c>
       <c r="R63" t="n">
         <v>288</v>
@@ -7932,7 +7932,7 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>9657</v>
+        <v>38365</v>
       </c>
       <c r="R64" t="n">
         <v>6</v>
@@ -8053,7 +8053,7 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>9670</v>
+        <v>37630</v>
       </c>
       <c r="R65" t="n">
         <v>6</v>
@@ -8174,7 +8174,7 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>8083</v>
+        <v>52618</v>
       </c>
       <c r="R66" t="n">
         <v>125</v>
@@ -8283,7 +8283,7 @@
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>8245</v>
+        <v>52628</v>
       </c>
       <c r="R67" t="n">
         <v>95</v>
@@ -8394,7 +8394,7 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>8965</v>
+        <v>52916</v>
       </c>
       <c r="R68" t="n">
         <v>121</v>
@@ -8509,7 +8509,7 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>9122</v>
+        <v>52694</v>
       </c>
       <c r="R69" t="n">
         <v>113</v>
@@ -8628,7 +8628,7 @@
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>9853</v>
+        <v>52811</v>
       </c>
       <c r="R70" t="n">
         <v>158</v>
@@ -8747,7 +8747,7 @@
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>10282</v>
+        <v>52587</v>
       </c>
       <c r="R71" t="n">
         <v>139</v>
@@ -8866,7 +8866,7 @@
         <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>10509</v>
+        <v>51779</v>
       </c>
       <c r="R72" t="n">
         <v>0</v>
@@ -8983,7 +8983,7 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>10647</v>
+        <v>51161</v>
       </c>
       <c r="R73" t="n">
         <v>5</v>
@@ -9100,7 +9100,7 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>6786</v>
+        <v>35012</v>
       </c>
       <c r="R74" t="n">
         <v>165</v>
@@ -9213,7 +9213,7 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>7127</v>
+        <v>35194</v>
       </c>
       <c r="R75" t="n">
         <v>203</v>
@@ -9326,7 +9326,7 @@
         <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>7537</v>
+        <v>35295</v>
       </c>
       <c r="R76" t="n">
         <v>180</v>
@@ -9443,7 +9443,7 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>7608</v>
+        <v>34982</v>
       </c>
       <c r="R77" t="n">
         <v>164</v>
@@ -9562,7 +9562,7 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>7993</v>
+        <v>35004</v>
       </c>
       <c r="R78" t="n">
         <v>189</v>
@@ -9681,7 +9681,7 @@
         <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>8724</v>
+        <v>35292</v>
       </c>
       <c r="R79" t="n">
         <v>214</v>
@@ -9800,7 +9800,7 @@
         <v>0</v>
       </c>
       <c r="Q80" t="n">
-        <v>9060</v>
+        <v>35014</v>
       </c>
       <c r="R80" t="n">
         <v>5</v>
@@ -9915,7 +9915,7 @@
         <v>0</v>
       </c>
       <c r="Q81" t="n">
-        <v>9038</v>
+        <v>34503</v>
       </c>
       <c r="R81" t="n">
         <v>0</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="Q82" t="n">
-        <v>11895</v>
+        <v>37263</v>
       </c>
       <c r="R82" t="n">
         <v>236</v>
@@ -10145,7 +10145,7 @@
         <v>0</v>
       </c>
       <c r="Q83" t="n">
-        <v>12063</v>
+        <v>37085</v>
       </c>
       <c r="R83" t="n">
         <v>211</v>
@@ -10258,7 +10258,7 @@
         <v>0</v>
       </c>
       <c r="Q84" t="n">
-        <v>12672</v>
+        <v>37317</v>
       </c>
       <c r="R84" t="n">
         <v>214</v>
@@ -10375,7 +10375,7 @@
         <v>0</v>
       </c>
       <c r="Q85" t="n">
-        <v>12638</v>
+        <v>36646</v>
       </c>
       <c r="R85" t="n">
         <v>204</v>
@@ -10494,7 +10494,7 @@
         <v>0</v>
       </c>
       <c r="Q86" t="n">
-        <v>13364</v>
+        <v>36933</v>
       </c>
       <c r="R86" t="n">
         <v>210</v>
@@ -10613,7 +10613,7 @@
         <v>0</v>
       </c>
       <c r="Q87" t="n">
-        <v>13609</v>
+        <v>36538</v>
       </c>
       <c r="R87" t="n">
         <v>212</v>
@@ -10732,7 +10732,7 @@
         <v>0</v>
       </c>
       <c r="Q88" t="n">
-        <v>13959</v>
+        <v>36381</v>
       </c>
       <c r="R88" t="n">
         <v>0</v>
@@ -10849,7 +10849,7 @@
         <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>13505</v>
+        <v>35310</v>
       </c>
       <c r="R89" t="n">
         <v>0</v>
@@ -10966,7 +10966,7 @@
         <v>0</v>
       </c>
       <c r="Q90" t="n">
-        <v>88</v>
+        <v>1071</v>
       </c>
       <c r="R90" t="n">
         <v>0</v>
@@ -11073,7 +11073,7 @@
         <v>0</v>
       </c>
       <c r="Q91" t="n">
-        <v>61</v>
+        <v>1076</v>
       </c>
       <c r="R91" t="n">
         <v>0</v>
@@ -11184,7 +11184,7 @@
         <v>0</v>
       </c>
       <c r="Q92" t="n">
-        <v>70</v>
+        <v>1075</v>
       </c>
       <c r="R92" t="n">
         <v>0</v>
@@ -11295,7 +11295,7 @@
         <v>0</v>
       </c>
       <c r="Q93" t="n">
-        <v>57</v>
+        <v>1065</v>
       </c>
       <c r="R93" t="n">
         <v>0</v>
@@ -11408,7 +11408,7 @@
         <v>0</v>
       </c>
       <c r="Q94" t="n">
-        <v>90</v>
+        <v>1107</v>
       </c>
       <c r="R94" t="n">
         <v>0</v>
@@ -11523,7 +11523,7 @@
         <v>0</v>
       </c>
       <c r="Q95" t="n">
-        <v>139</v>
+        <v>1144</v>
       </c>
       <c r="R95" t="n">
         <v>0</v>
@@ -11864,7 +11864,7 @@
         <v>0</v>
       </c>
       <c r="Q98" t="n">
-        <v>4215</v>
+        <v>28620</v>
       </c>
       <c r="R98" t="n">
         <v>5</v>
@@ -11971,7 +11971,7 @@
         <v>0</v>
       </c>
       <c r="Q99" t="n">
-        <v>4423</v>
+        <v>28828</v>
       </c>
       <c r="R99" t="n">
         <v>0</v>
@@ -12078,7 +12078,7 @@
         <v>6</v>
       </c>
       <c r="Q100" t="n">
-        <v>4693</v>
+        <v>29001</v>
       </c>
       <c r="R100" t="n">
         <v>0</v>
@@ -12193,7 +12193,7 @@
         <v>0</v>
       </c>
       <c r="Q101" t="n">
-        <v>4938</v>
+        <v>28963</v>
       </c>
       <c r="R101" t="n">
         <v>0</v>
@@ -12310,7 +12310,7 @@
         <v>0</v>
       </c>
       <c r="Q102" t="n">
-        <v>5439</v>
+        <v>29187</v>
       </c>
       <c r="R102" t="n">
         <v>0</v>
@@ -12423,7 +12423,7 @@
         <v>0</v>
       </c>
       <c r="Q103" t="n">
-        <v>5758</v>
+        <v>29324</v>
       </c>
       <c r="R103" t="n">
         <v>0</v>
@@ -12540,7 +12540,7 @@
         <v>0</v>
       </c>
       <c r="Q104" t="n">
-        <v>5834</v>
+        <v>29018</v>
       </c>
       <c r="R104" t="n">
         <v>0</v>
@@ -12655,7 +12655,7 @@
         <v>0</v>
       </c>
       <c r="Q105" t="n">
-        <v>5717</v>
+        <v>28329</v>
       </c>
       <c r="R105" t="n">
         <v>0</v>
@@ -12770,7 +12770,7 @@
         <v>0</v>
       </c>
       <c r="Q106" t="n">
-        <v>1649</v>
+        <v>9470</v>
       </c>
       <c r="R106" t="n">
         <v>12</v>
@@ -12879,7 +12879,7 @@
         <v>0</v>
       </c>
       <c r="Q107" t="n">
-        <v>1695</v>
+        <v>9421</v>
       </c>
       <c r="R107" t="n">
         <v>23</v>
@@ -12988,7 +12988,7 @@
         <v>0</v>
       </c>
       <c r="Q108" t="n">
-        <v>1724</v>
+        <v>9413</v>
       </c>
       <c r="R108" t="n">
         <v>23</v>
@@ -13097,7 +13097,7 @@
         <v>0</v>
       </c>
       <c r="Q109" t="n">
-        <v>1746</v>
+        <v>9335</v>
       </c>
       <c r="R109" t="n">
         <v>21</v>
@@ -13208,7 +13208,7 @@
         <v>0</v>
       </c>
       <c r="Q110" t="n">
-        <v>1876</v>
+        <v>9313</v>
       </c>
       <c r="R110" t="n">
         <v>25</v>
@@ -13319,7 +13319,7 @@
         <v>0</v>
       </c>
       <c r="Q111" t="n">
-        <v>1945</v>
+        <v>9296</v>
       </c>
       <c r="R111" t="n">
         <v>12</v>
@@ -13430,7 +13430,7 @@
         <v>0</v>
       </c>
       <c r="Q112" t="n">
-        <v>2008</v>
+        <v>9157</v>
       </c>
       <c r="R112" t="n">
         <v>0</v>
@@ -13543,7 +13543,7 @@
         <v>0</v>
       </c>
       <c r="Q113" t="n">
-        <v>2263</v>
+        <v>9304</v>
       </c>
       <c r="R113" t="n">
         <v>0</v>
@@ -13656,7 +13656,7 @@
         <v>0</v>
       </c>
       <c r="Q114" t="n">
-        <v>2926</v>
+        <v>14489</v>
       </c>
       <c r="R114" t="n">
         <v>15</v>
@@ -13763,7 +13763,7 @@
         <v>0</v>
       </c>
       <c r="Q115" t="n">
-        <v>3005</v>
+        <v>14577</v>
       </c>
       <c r="R115" t="n">
         <v>21</v>
@@ -13870,7 +13870,7 @@
         <v>0</v>
       </c>
       <c r="Q116" t="n">
-        <v>3086</v>
+        <v>14512</v>
       </c>
       <c r="R116" t="n">
         <v>20</v>
@@ -13985,7 +13985,7 @@
         <v>0</v>
       </c>
       <c r="Q117" t="n">
-        <v>3229</v>
+        <v>14478</v>
       </c>
       <c r="R117" t="n">
         <v>30</v>
@@ -14102,7 +14102,7 @@
         <v>0</v>
       </c>
       <c r="Q118" t="n">
-        <v>3426</v>
+        <v>14550</v>
       </c>
       <c r="R118" t="n">
         <v>28</v>
@@ -14219,7 +14219,7 @@
         <v>0</v>
       </c>
       <c r="Q119" t="n">
-        <v>3592</v>
+        <v>14543</v>
       </c>
       <c r="R119" t="n">
         <v>34</v>
@@ -14336,7 +14336,7 @@
         <v>0</v>
       </c>
       <c r="Q120" t="n">
-        <v>3755</v>
+        <v>14447</v>
       </c>
       <c r="R120" t="n">
         <v>0</v>
@@ -14451,7 +14451,7 @@
         <v>0</v>
       </c>
       <c r="Q121" t="n">
-        <v>3783</v>
+        <v>14247</v>
       </c>
       <c r="R121" t="n">
         <v>0</v>
@@ -14566,7 +14566,7 @@
         <v>0</v>
       </c>
       <c r="Q122" t="n">
-        <v>1913</v>
+        <v>17054</v>
       </c>
       <c r="R122" t="n">
         <v>16</v>
@@ -14673,7 +14673,7 @@
         <v>0</v>
       </c>
       <c r="Q123" t="n">
-        <v>2013</v>
+        <v>17149</v>
       </c>
       <c r="R123" t="n">
         <v>12</v>
@@ -14784,7 +14784,7 @@
         <v>0</v>
       </c>
       <c r="Q124" t="n">
-        <v>2182</v>
+        <v>17165</v>
       </c>
       <c r="R124" t="n">
         <v>12</v>
@@ -14895,7 +14895,7 @@
         <v>0</v>
       </c>
       <c r="Q125" t="n">
-        <v>2302</v>
+        <v>17429</v>
       </c>
       <c r="R125" t="n">
         <v>11</v>
@@ -15004,7 +15004,7 @@
         <v>0</v>
       </c>
       <c r="Q126" t="n">
-        <v>2620</v>
+        <v>17931</v>
       </c>
       <c r="R126" t="n">
         <v>12</v>
@@ -15113,7 +15113,7 @@
         <v>0</v>
       </c>
       <c r="Q127" t="n">
-        <v>2730</v>
+        <v>17985</v>
       </c>
       <c r="R127" t="n">
         <v>24</v>
@@ -15226,7 +15226,7 @@
         <v>0</v>
       </c>
       <c r="Q128" t="n">
-        <v>2779</v>
+        <v>17795</v>
       </c>
       <c r="R128" t="n">
         <v>0</v>
@@ -15337,7 +15337,7 @@
         <v>0</v>
       </c>
       <c r="Q129" t="n">
-        <v>2739</v>
+        <v>17613</v>
       </c>
       <c r="R129" t="n">
         <v>0</v>
@@ -15448,7 +15448,7 @@
         <v>0</v>
       </c>
       <c r="Q130" t="n">
-        <v>3531</v>
+        <v>22153</v>
       </c>
       <c r="R130" t="n">
         <v>0</v>
@@ -15555,7 +15555,7 @@
         <v>0</v>
       </c>
       <c r="Q131" t="n">
-        <v>3567</v>
+        <v>21948</v>
       </c>
       <c r="R131" t="n">
         <v>5</v>
@@ -15662,7 +15662,7 @@
         <v>0</v>
       </c>
       <c r="Q132" t="n">
-        <v>3775</v>
+        <v>21990</v>
       </c>
       <c r="R132" t="n">
         <v>5</v>
@@ -15777,7 +15777,7 @@
         <v>0</v>
       </c>
       <c r="Q133" t="n">
-        <v>3846</v>
+        <v>21874</v>
       </c>
       <c r="R133" t="n">
         <v>12</v>
@@ -15890,7 +15890,7 @@
         <v>0</v>
       </c>
       <c r="Q134" t="n">
-        <v>4261</v>
+        <v>22219</v>
       </c>
       <c r="R134" t="n">
         <v>5</v>
@@ -16003,7 +16003,7 @@
         <v>0</v>
       </c>
       <c r="Q135" t="n">
-        <v>4747</v>
+        <v>22555</v>
       </c>
       <c r="R135" t="n">
         <v>6</v>
@@ -16116,7 +16116,7 @@
         <v>0</v>
       </c>
       <c r="Q136" t="n">
-        <v>4852</v>
+        <v>22423</v>
       </c>
       <c r="R136" t="n">
         <v>0</v>
@@ -16227,7 +16227,7 @@
         <v>0</v>
       </c>
       <c r="Q137" t="n">
-        <v>4712</v>
+        <v>21758</v>
       </c>
       <c r="R137" t="n">
         <v>0</v>
@@ -16338,7 +16338,7 @@
         <v>0</v>
       </c>
       <c r="Q138" t="n">
-        <v>5498</v>
+        <v>37332</v>
       </c>
       <c r="R138" t="n">
         <v>66</v>
@@ -16451,7 +16451,7 @@
         <v>0</v>
       </c>
       <c r="Q139" t="n">
-        <v>5584</v>
+        <v>37365</v>
       </c>
       <c r="R139" t="n">
         <v>56</v>
@@ -16564,7 +16564,7 @@
         <v>0</v>
       </c>
       <c r="Q140" t="n">
-        <v>5718</v>
+        <v>37473</v>
       </c>
       <c r="R140" t="n">
         <v>53</v>
@@ -16681,7 +16681,7 @@
         <v>0</v>
       </c>
       <c r="Q141" t="n">
-        <v>6082</v>
+        <v>37559</v>
       </c>
       <c r="R141" t="n">
         <v>43</v>
@@ -16800,7 +16800,7 @@
         <v>0</v>
       </c>
       <c r="Q142" t="n">
-        <v>7160</v>
+        <v>38272</v>
       </c>
       <c r="R142" t="n">
         <v>57</v>
@@ -16919,7 +16919,7 @@
         <v>0</v>
       </c>
       <c r="Q143" t="n">
-        <v>8698</v>
+        <v>39532</v>
       </c>
       <c r="R143" t="n">
         <v>62</v>
@@ -17038,7 +17038,7 @@
         <v>0</v>
       </c>
       <c r="Q144" t="n">
-        <v>9065</v>
+        <v>39303</v>
       </c>
       <c r="R144" t="n">
         <v>0</v>
@@ -17155,7 +17155,7 @@
         <v>0</v>
       </c>
       <c r="Q145" t="n">
-        <v>8897</v>
+        <v>38566</v>
       </c>
       <c r="R145" t="n">
         <v>0</v>
@@ -17272,7 +17272,7 @@
         <v>0</v>
       </c>
       <c r="Q146" t="n">
-        <v>3064</v>
+        <v>42282</v>
       </c>
       <c r="R146" t="n">
         <v>40</v>
@@ -17383,7 +17383,7 @@
         <v>0</v>
       </c>
       <c r="Q147" t="n">
-        <v>3120</v>
+        <v>42233</v>
       </c>
       <c r="R147" t="n">
         <v>60</v>
@@ -17494,7 +17494,7 @@
         <v>0</v>
       </c>
       <c r="Q148" t="n">
-        <v>3166</v>
+        <v>42084</v>
       </c>
       <c r="R148" t="n">
         <v>51</v>
@@ -17609,7 +17609,7 @@
         <v>0</v>
       </c>
       <c r="Q149" t="n">
-        <v>3359</v>
+        <v>42024</v>
       </c>
       <c r="R149" t="n">
         <v>49</v>
@@ -17726,7 +17726,7 @@
         <v>0</v>
       </c>
       <c r="Q150" t="n">
-        <v>3830</v>
+        <v>42210</v>
       </c>
       <c r="R150" t="n">
         <v>34</v>
@@ -17845,7 +17845,7 @@
         <v>0</v>
       </c>
       <c r="Q151" t="n">
-        <v>4282</v>
+        <v>42230</v>
       </c>
       <c r="R151" t="n">
         <v>48</v>
@@ -17966,7 +17966,7 @@
         <v>0</v>
       </c>
       <c r="Q152" t="n">
-        <v>4430</v>
+        <v>41516</v>
       </c>
       <c r="R152" t="n">
         <v>0</v>
@@ -18085,7 +18085,7 @@
         <v>0</v>
       </c>
       <c r="Q153" t="n">
-        <v>4441</v>
+        <v>41156</v>
       </c>
       <c r="R153" t="n">
         <v>0</v>
@@ -18204,7 +18204,7 @@
         <v>0</v>
       </c>
       <c r="Q154" t="n">
-        <v>2062</v>
+        <v>22158</v>
       </c>
       <c r="R154" t="n">
         <v>22</v>
@@ -18317,7 +18317,7 @@
         <v>0</v>
       </c>
       <c r="Q155" t="n">
-        <v>2033</v>
+        <v>22173</v>
       </c>
       <c r="R155" t="n">
         <v>17</v>
@@ -18430,7 +18430,7 @@
         <v>0</v>
       </c>
       <c r="Q156" t="n">
-        <v>2204</v>
+        <v>22189</v>
       </c>
       <c r="R156" t="n">
         <v>24</v>
@@ -18543,7 +18543,7 @@
         <v>0</v>
       </c>
       <c r="Q157" t="n">
-        <v>2228</v>
+        <v>22112</v>
       </c>
       <c r="R157" t="n">
         <v>19</v>
@@ -18658,7 +18658,7 @@
         <v>0</v>
       </c>
       <c r="Q158" t="n">
-        <v>2253</v>
+        <v>21938</v>
       </c>
       <c r="R158" t="n">
         <v>16</v>
@@ -18775,7 +18775,7 @@
         <v>0</v>
       </c>
       <c r="Q159" t="n">
-        <v>2422</v>
+        <v>21815</v>
       </c>
       <c r="R159" t="n">
         <v>19</v>
@@ -18892,7 +18892,7 @@
         <v>0</v>
       </c>
       <c r="Q160" t="n">
-        <v>2629</v>
+        <v>21649</v>
       </c>
       <c r="R160" t="n">
         <v>0</v>
@@ -19013,7 +19013,7 @@
         <v>0</v>
       </c>
       <c r="Q161" t="n">
-        <v>2850</v>
+        <v>21535</v>
       </c>
       <c r="R161" t="n">
         <v>0</v>
@@ -19134,7 +19134,7 @@
         <v>0</v>
       </c>
       <c r="Q162" t="n">
-        <v>1324</v>
+        <v>10686</v>
       </c>
       <c r="R162" t="n">
         <v>106</v>
@@ -19243,7 +19243,7 @@
         <v>0</v>
       </c>
       <c r="Q163" t="n">
-        <v>1395</v>
+        <v>10779</v>
       </c>
       <c r="R163" t="n">
         <v>87</v>
@@ -19352,7 +19352,7 @@
         <v>0</v>
       </c>
       <c r="Q164" t="n">
-        <v>1603</v>
+        <v>10987</v>
       </c>
       <c r="R164" t="n">
         <v>97</v>
@@ -19469,7 +19469,7 @@
         <v>0</v>
       </c>
       <c r="Q165" t="n">
-        <v>1534</v>
+        <v>10830</v>
       </c>
       <c r="R165" t="n">
         <v>77</v>
@@ -19588,7 +19588,7 @@
         <v>0</v>
       </c>
       <c r="Q166" t="n">
-        <v>1568</v>
+        <v>10803</v>
       </c>
       <c r="R166" t="n">
         <v>89</v>
@@ -19703,7 +19703,7 @@
         <v>0</v>
       </c>
       <c r="Q167" t="n">
-        <v>1579</v>
+        <v>10691</v>
       </c>
       <c r="R167" t="n">
         <v>81</v>
@@ -19822,7 +19822,7 @@
         <v>0</v>
       </c>
       <c r="Q168" t="n">
-        <v>1588</v>
+        <v>10600</v>
       </c>
       <c r="R168" t="n">
         <v>0</v>
@@ -19941,7 +19941,7 @@
         <v>0</v>
       </c>
       <c r="Q169" t="n">
-        <v>1525</v>
+        <v>10508</v>
       </c>
       <c r="R169" t="n">
         <v>0</v>
@@ -20062,7 +20062,7 @@
         <v>0</v>
       </c>
       <c r="Q170" t="n">
-        <v>453</v>
+        <v>4267</v>
       </c>
       <c r="R170" t="n">
         <v>53</v>
@@ -20171,7 +20171,7 @@
         <v>0</v>
       </c>
       <c r="Q171" t="n">
-        <v>417</v>
+        <v>4271</v>
       </c>
       <c r="R171" t="n">
         <v>56</v>
@@ -20280,7 +20280,7 @@
         <v>0</v>
       </c>
       <c r="Q172" t="n">
-        <v>451</v>
+        <v>4297</v>
       </c>
       <c r="R172" t="n">
         <v>53</v>
@@ -20389,7 +20389,7 @@
         <v>0</v>
       </c>
       <c r="Q173" t="n">
-        <v>478</v>
+        <v>4328</v>
       </c>
       <c r="R173" t="n">
         <v>57</v>
@@ -20500,7 +20500,7 @@
         <v>0</v>
       </c>
       <c r="Q174" t="n">
-        <v>528</v>
+        <v>4330</v>
       </c>
       <c r="R174" t="n">
         <v>59</v>
@@ -20613,7 +20613,7 @@
         <v>0</v>
       </c>
       <c r="Q175" t="n">
-        <v>535</v>
+        <v>4321</v>
       </c>
       <c r="R175" t="n">
         <v>59</v>
@@ -20726,7 +20726,7 @@
         <v>0</v>
       </c>
       <c r="Q176" t="n">
-        <v>552</v>
+        <v>4371</v>
       </c>
       <c r="R176" t="n">
         <v>0</v>
@@ -20839,7 +20839,7 @@
         <v>0</v>
       </c>
       <c r="Q177" t="n">
-        <v>563</v>
+        <v>4396</v>
       </c>
       <c r="R177" t="n">
         <v>0</v>
@@ -20952,7 +20952,7 @@
         <v>0</v>
       </c>
       <c r="Q178" t="n">
-        <v>1978</v>
+        <v>22810</v>
       </c>
       <c r="R178" t="n">
         <v>95</v>
@@ -21059,7 +21059,7 @@
         <v>0</v>
       </c>
       <c r="Q179" t="n">
-        <v>2001</v>
+        <v>22943</v>
       </c>
       <c r="R179" t="n">
         <v>77</v>
@@ -21170,7 +21170,7 @@
         <v>0</v>
       </c>
       <c r="Q180" t="n">
-        <v>2169</v>
+        <v>23176</v>
       </c>
       <c r="R180" t="n">
         <v>88</v>
@@ -21285,7 +21285,7 @@
         <v>0</v>
       </c>
       <c r="Q181" t="n">
-        <v>2294</v>
+        <v>23110</v>
       </c>
       <c r="R181" t="n">
         <v>88</v>
@@ -21398,7 +21398,7 @@
         <v>0</v>
       </c>
       <c r="Q182" t="n">
-        <v>2503</v>
+        <v>23060</v>
       </c>
       <c r="R182" t="n">
         <v>119</v>
@@ -21513,7 +21513,7 @@
         <v>0</v>
       </c>
       <c r="Q183" t="n">
-        <v>2535</v>
+        <v>23008</v>
       </c>
       <c r="R183" t="n">
         <v>128</v>
@@ -21628,7 +21628,7 @@
         <v>0</v>
       </c>
       <c r="Q184" t="n">
-        <v>2549</v>
+        <v>22517</v>
       </c>
       <c r="R184" t="n">
         <v>20</v>
@@ -21739,7 +21739,7 @@
         <v>0</v>
       </c>
       <c r="Q185" t="n">
-        <v>2583</v>
+        <v>22362</v>
       </c>
       <c r="R185" t="n">
         <v>14</v>
@@ -21850,7 +21850,7 @@
         <v>0</v>
       </c>
       <c r="Q186" t="n">
-        <v>1088</v>
+        <v>15282</v>
       </c>
       <c r="R186" t="n">
         <v>44</v>
@@ -21957,7 +21957,7 @@
         <v>0</v>
       </c>
       <c r="Q187" t="n">
-        <v>875</v>
+        <v>15275</v>
       </c>
       <c r="R187" t="n">
         <v>38</v>
@@ -22064,7 +22064,7 @@
         <v>0</v>
       </c>
       <c r="Q188" t="n">
-        <v>989</v>
+        <v>15450</v>
       </c>
       <c r="R188" t="n">
         <v>38</v>
@@ -22179,7 +22179,7 @@
         <v>0</v>
       </c>
       <c r="Q189" t="n">
-        <v>1011</v>
+        <v>15467</v>
       </c>
       <c r="R189" t="n">
         <v>49</v>
@@ -22296,7 +22296,7 @@
         <v>0</v>
       </c>
       <c r="Q190" t="n">
-        <v>1076</v>
+        <v>15375</v>
       </c>
       <c r="R190" t="n">
         <v>50</v>
@@ -22409,7 +22409,7 @@
         <v>0</v>
       </c>
       <c r="Q191" t="n">
-        <v>1105</v>
+        <v>15288</v>
       </c>
       <c r="R191" t="n">
         <v>51</v>
@@ -22522,7 +22522,7 @@
         <v>0</v>
       </c>
       <c r="Q192" t="n">
-        <v>1114</v>
+        <v>14948</v>
       </c>
       <c r="R192" t="n">
         <v>5</v>
@@ -22637,7 +22637,7 @@
         <v>0</v>
       </c>
       <c r="Q193" t="n">
-        <v>1148</v>
+        <v>14712</v>
       </c>
       <c r="R193" t="n">
         <v>19</v>
@@ -22752,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="Q194" t="n">
-        <v>1615</v>
+        <v>23328</v>
       </c>
       <c r="R194" t="n">
         <v>87</v>
@@ -22865,7 +22865,7 @@
         <v>0</v>
       </c>
       <c r="Q195" t="n">
-        <v>1744</v>
+        <v>23666</v>
       </c>
       <c r="R195" t="n">
         <v>75</v>
@@ -22978,7 +22978,7 @@
         <v>0</v>
       </c>
       <c r="Q196" t="n">
-        <v>1866</v>
+        <v>23695</v>
       </c>
       <c r="R196" t="n">
         <v>69</v>
@@ -23095,7 +23095,7 @@
         <v>0</v>
       </c>
       <c r="Q197" t="n">
-        <v>1844</v>
+        <v>23636</v>
       </c>
       <c r="R197" t="n">
         <v>52</v>
@@ -23214,7 +23214,7 @@
         <v>0</v>
       </c>
       <c r="Q198" t="n">
-        <v>2074</v>
+        <v>23721</v>
       </c>
       <c r="R198" t="n">
         <v>71</v>
@@ -23335,7 +23335,7 @@
         <v>0</v>
       </c>
       <c r="Q199" t="n">
-        <v>2332</v>
+        <v>23782</v>
       </c>
       <c r="R199" t="n">
         <v>24</v>
@@ -23456,7 +23456,7 @@
         <v>0</v>
       </c>
       <c r="Q200" t="n">
-        <v>2556</v>
+        <v>23591</v>
       </c>
       <c r="R200" t="n">
         <v>5</v>
@@ -23573,7 +23573,7 @@
         <v>0</v>
       </c>
       <c r="Q201" t="n">
-        <v>2535</v>
+        <v>23271</v>
       </c>
       <c r="R201" t="n">
         <v>5</v>
@@ -23690,7 +23690,7 @@
         <v>0</v>
       </c>
       <c r="Q202" t="n">
-        <v>3539</v>
+        <v>42755</v>
       </c>
       <c r="R202" t="n">
         <v>171</v>
@@ -23801,7 +23801,7 @@
         <v>0</v>
       </c>
       <c r="Q203" t="n">
-        <v>3781</v>
+        <v>43189</v>
       </c>
       <c r="R203" t="n">
         <v>173</v>
@@ -23912,7 +23912,7 @@
         <v>0</v>
       </c>
       <c r="Q204" t="n">
-        <v>4195</v>
+        <v>43623</v>
       </c>
       <c r="R204" t="n">
         <v>209</v>
@@ -24027,7 +24027,7 @@
         <v>0</v>
       </c>
       <c r="Q205" t="n">
-        <v>4244</v>
+        <v>43532</v>
       </c>
       <c r="R205" t="n">
         <v>170</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="Q206" t="n">
-        <v>4691</v>
+        <v>43708</v>
       </c>
       <c r="R206" t="n">
         <v>198</v>
@@ -24263,7 +24263,7 @@
         <v>0</v>
       </c>
       <c r="Q207" t="n">
-        <v>4834</v>
+        <v>43515</v>
       </c>
       <c r="R207" t="n">
         <v>172</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="Q208" t="n">
-        <v>5016</v>
+        <v>42873</v>
       </c>
       <c r="R208" t="n">
         <v>10</v>
@@ -24497,7 +24497,7 @@
         <v>0</v>
       </c>
       <c r="Q209" t="n">
-        <v>5312</v>
+        <v>42609</v>
       </c>
       <c r="R209" t="n">
         <v>0</v>
@@ -24614,7 +24614,7 @@
         <v>0</v>
       </c>
       <c r="Q210" t="n">
-        <v>2736</v>
+        <v>26576</v>
       </c>
       <c r="R210" t="n">
         <v>128</v>
@@ -24721,7 +24721,7 @@
         <v>0</v>
       </c>
       <c r="Q211" t="n">
-        <v>2805</v>
+        <v>26756</v>
       </c>
       <c r="R211" t="n">
         <v>125</v>
@@ -24828,7 +24828,7 @@
         <v>0</v>
       </c>
       <c r="Q212" t="n">
-        <v>2822</v>
+        <v>26832</v>
       </c>
       <c r="R212" t="n">
         <v>93</v>
@@ -24945,7 +24945,7 @@
         <v>0</v>
       </c>
       <c r="Q213" t="n">
-        <v>2841</v>
+        <v>26771</v>
       </c>
       <c r="R213" t="n">
         <v>114</v>
@@ -25064,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Q214" t="n">
-        <v>3160</v>
+        <v>26916</v>
       </c>
       <c r="R214" t="n">
         <v>110</v>
@@ -25185,7 +25185,7 @@
         <v>0</v>
       </c>
       <c r="Q215" t="n">
-        <v>3613</v>
+        <v>27315</v>
       </c>
       <c r="R215" t="n">
         <v>120</v>
@@ -25306,7 +25306,7 @@
         <v>0</v>
       </c>
       <c r="Q216" t="n">
-        <v>3647</v>
+        <v>26971</v>
       </c>
       <c r="R216" t="n">
         <v>0</v>
@@ -25423,7 +25423,7 @@
         <v>0</v>
       </c>
       <c r="Q217" t="n">
-        <v>3789</v>
+        <v>26760</v>
       </c>
       <c r="R217" t="n">
         <v>0</v>
@@ -25540,7 +25540,7 @@
         <v>0</v>
       </c>
       <c r="Q218" t="n">
-        <v>1498</v>
+        <v>14278</v>
       </c>
       <c r="R218" t="n">
         <v>66</v>
@@ -25647,7 +25647,7 @@
         <v>0</v>
       </c>
       <c r="Q219" t="n">
-        <v>1537</v>
+        <v>14310</v>
       </c>
       <c r="R219" t="n">
         <v>71</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="Q220" t="n">
-        <v>1585</v>
+        <v>14423</v>
       </c>
       <c r="R220" t="n">
         <v>63</v>
@@ -25869,7 +25869,7 @@
         <v>0</v>
       </c>
       <c r="Q221" t="n">
-        <v>1679</v>
+        <v>14528</v>
       </c>
       <c r="R221" t="n">
         <v>68</v>
@@ -25982,7 +25982,7 @@
         <v>0</v>
       </c>
       <c r="Q222" t="n">
-        <v>1818</v>
+        <v>14612</v>
       </c>
       <c r="R222" t="n">
         <v>70</v>
@@ -26097,7 +26097,7 @@
         <v>0</v>
       </c>
       <c r="Q223" t="n">
-        <v>1998</v>
+        <v>14766</v>
       </c>
       <c r="R223" t="n">
         <v>68</v>
@@ -26212,7 +26212,7 @@
         <v>0</v>
       </c>
       <c r="Q224" t="n">
-        <v>2128</v>
+        <v>14676</v>
       </c>
       <c r="R224" t="n">
         <v>5</v>
@@ -26323,7 +26323,7 @@
         <v>0</v>
       </c>
       <c r="Q225" t="n">
-        <v>2090</v>
+        <v>14383</v>
       </c>
       <c r="R225" t="n">
         <v>0</v>
@@ -26434,7 +26434,7 @@
         <v>0</v>
       </c>
       <c r="Q226" t="n">
-        <v>734</v>
+        <v>6683</v>
       </c>
       <c r="R226" t="n">
         <v>36</v>
@@ -26541,7 +26541,7 @@
         <v>0</v>
       </c>
       <c r="Q227" t="n">
-        <v>788</v>
+        <v>6747</v>
       </c>
       <c r="R227" t="n">
         <v>19</v>
@@ -26648,7 +26648,7 @@
         <v>0</v>
       </c>
       <c r="Q228" t="n">
-        <v>845</v>
+        <v>6756</v>
       </c>
       <c r="R228" t="n">
         <v>19</v>
@@ -26755,7 +26755,7 @@
         <v>0</v>
       </c>
       <c r="Q229" t="n">
-        <v>877</v>
+        <v>6753</v>
       </c>
       <c r="R229" t="n">
         <v>26</v>
@@ -26864,7 +26864,7 @@
         <v>0</v>
       </c>
       <c r="Q230" t="n">
-        <v>941</v>
+        <v>6748</v>
       </c>
       <c r="R230" t="n">
         <v>12</v>
@@ -26973,7 +26973,7 @@
         <v>0</v>
       </c>
       <c r="Q231" t="n">
-        <v>1049</v>
+        <v>6811</v>
       </c>
       <c r="R231" t="n">
         <v>10</v>
@@ -27082,7 +27082,7 @@
         <v>0</v>
       </c>
       <c r="Q232" t="n">
-        <v>1155</v>
+        <v>6892</v>
       </c>
       <c r="R232" t="n">
         <v>0</v>
@@ -27191,7 +27191,7 @@
         <v>0</v>
       </c>
       <c r="Q233" t="n">
-        <v>1142</v>
+        <v>6806</v>
       </c>
       <c r="R233" t="n">
         <v>0</v>
@@ -27302,7 +27302,7 @@
         <v>0</v>
       </c>
       <c r="Q234" t="n">
-        <v>1084</v>
+        <v>12105</v>
       </c>
       <c r="R234" t="n">
         <v>38</v>
@@ -27411,7 +27411,7 @@
         <v>0</v>
       </c>
       <c r="Q235" t="n">
-        <v>1013</v>
+        <v>11942</v>
       </c>
       <c r="R235" t="n">
         <v>22</v>
@@ -27520,7 +27520,7 @@
         <v>0</v>
       </c>
       <c r="Q236" t="n">
-        <v>1099</v>
+        <v>11998</v>
       </c>
       <c r="R236" t="n">
         <v>24</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="Q237" t="n">
-        <v>1268</v>
+        <v>12057</v>
       </c>
       <c r="R237" t="n">
         <v>34</v>
@@ -27752,7 +27752,7 @@
         <v>0</v>
       </c>
       <c r="Q238" t="n">
-        <v>1404</v>
+        <v>12139</v>
       </c>
       <c r="R238" t="n">
         <v>40</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="Q239" t="n">
-        <v>1502</v>
+        <v>12123</v>
       </c>
       <c r="R239" t="n">
         <v>40</v>
@@ -27990,7 +27990,7 @@
         <v>0</v>
       </c>
       <c r="Q240" t="n">
-        <v>1546</v>
+        <v>12052</v>
       </c>
       <c r="R240" t="n">
         <v>0</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="Q241" t="n">
-        <v>1560</v>
+        <v>12005</v>
       </c>
       <c r="R241" t="n">
         <v>0</v>
@@ -28222,7 +28222,7 @@
         <v>0</v>
       </c>
       <c r="Q242" t="n">
-        <v>7298</v>
+        <v>45878</v>
       </c>
       <c r="R242" t="n">
         <v>364</v>
@@ -28335,7 +28335,7 @@
         <v>0</v>
       </c>
       <c r="Q243" t="n">
-        <v>7458</v>
+        <v>45919</v>
       </c>
       <c r="R243" t="n">
         <v>363</v>
@@ -28448,7 +28448,7 @@
         <v>0</v>
       </c>
       <c r="Q244" t="n">
-        <v>8065</v>
+        <v>45968</v>
       </c>
       <c r="R244" t="n">
         <v>404</v>
@@ -28565,7 +28565,7 @@
         <v>0</v>
       </c>
       <c r="Q245" t="n">
-        <v>8040</v>
+        <v>45452</v>
       </c>
       <c r="R245" t="n">
         <v>351</v>
@@ -28684,7 +28684,7 @@
         <v>0</v>
       </c>
       <c r="Q246" t="n">
-        <v>5182</v>
+        <v>27941</v>
       </c>
       <c r="R246" t="n">
         <v>254</v>
@@ -28805,7 +28805,7 @@
         <v>0</v>
       </c>
       <c r="Q247" t="n">
-        <v>2886</v>
+        <v>17054</v>
       </c>
       <c r="R247" t="n">
         <v>89</v>
@@ -28926,7 +28926,7 @@
         <v>0</v>
       </c>
       <c r="Q248" t="n">
-        <v>1173</v>
+        <v>7582</v>
       </c>
       <c r="R248" t="n">
         <v>0</v>
@@ -29043,7 +29043,7 @@
         <v>0</v>
       </c>
       <c r="Q249" t="n">
-        <v>677</v>
+        <v>3491</v>
       </c>
       <c r="R249" t="n">
         <v>5</v>
@@ -29160,7 +29160,7 @@
         <v>0</v>
       </c>
       <c r="Q250" t="n">
-        <v>2903</v>
+        <v>31112</v>
       </c>
       <c r="R250" t="n">
         <v>38</v>
@@ -29267,7 +29267,7 @@
         <v>0</v>
       </c>
       <c r="Q251" t="n">
-        <v>3245</v>
+        <v>31440</v>
       </c>
       <c r="R251" t="n">
         <v>57</v>
@@ -29378,7 +29378,7 @@
         <v>0</v>
       </c>
       <c r="Q252" t="n">
-        <v>2043</v>
+        <v>17376</v>
       </c>
       <c r="R252" t="n">
         <v>44</v>
@@ -29493,7 +29493,7 @@
         <v>0</v>
       </c>
       <c r="Q253" t="n">
-        <v>816</v>
+        <v>6683</v>
       </c>
       <c r="R253" t="n">
         <v>29</v>
@@ -30064,7 +30064,7 @@
         <v>0</v>
       </c>
       <c r="Q258" t="n">
-        <v>2603</v>
+        <v>23372</v>
       </c>
       <c r="R258" t="n">
         <v>8</v>
@@ -30171,7 +30171,7 @@
         <v>0</v>
       </c>
       <c r="Q259" t="n">
-        <v>1753</v>
+        <v>14619</v>
       </c>
       <c r="R259" t="n">
         <v>0</v>
@@ -30944,7 +30944,7 @@
         <v>0</v>
       </c>
       <c r="Q266" t="n">
-        <v>568</v>
+        <v>6967</v>
       </c>
       <c r="R266" t="n">
         <v>13</v>
